--- a/data/trans_camb/P38A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Habitat-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P38A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,0</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; 10,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 14,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,67; 8,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,4; 10,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 7,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 10,38</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,64%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 12,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,29; 18,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,18; 9,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; 11,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,96; 9,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 12,1</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,72; 0,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,87; 5,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,65; 4,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 7,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,34; 1,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 5,18</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,52%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,67; 0,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 5,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 5,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 8,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,82; 1,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 6,06</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,07</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,3; 2,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,56; 0,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,23; 6,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,73; 2,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 3,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,32; -0,05</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,58%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,02; 3,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,67; 0,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 7,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 2,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 4,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,93; -0,06</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,47; 2,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; 3,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 4,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 4,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 2,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,36; 3,25</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,99%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,86%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,22%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,37; 2,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,23; 3,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; 4,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 5,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 2,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 3,71</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,71</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,9; 1,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,26; -1,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,27; -1,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,17; -2,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,53; -1,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,53; -3,14</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,89%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,5%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,88%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,56%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,97%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,44%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,7; 1,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,66; -1,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,92; -2,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,19; -3,02</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,26; -1,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,61; -3,58</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,1</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; -0,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,48; -1,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 1,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 0,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 0,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,23; -0,52</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,87%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,32%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,4%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; -0,02</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,75; -1,26</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 1,82</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 0,72</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 0,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,81; -0,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>3,05</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 10,98</t>
+          <t>-6,33; 1,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 14,74</t>
+          <t>-2,76; 5,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 8,31</t>
+          <t>-2,56; 4,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 10,09</t>
+          <t>1,2; 7,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 7,78</t>
+          <t>-3,37; 1,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 10,38</t>
+          <t>0,41; 5,8</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>-2,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 12,75</t>
+          <t>-7,05; 1,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 18,23</t>
+          <t>-3,1; 6,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 9,68</t>
+          <t>-2,83; 4,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 11,91</t>
+          <t>1,27; 8,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 9,1</t>
+          <t>-3,74; 2,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 12,1</t>
+          <t>0,44; 6,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,45</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-17,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>-9,99</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 0,58</t>
+          <t>-4,3; 2,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 5,08</t>
+          <t>-47,54; 0,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 4,46</t>
+          <t>1,23; 6,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 7,35</t>
+          <t>-2,65; 3,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,39</t>
+          <t>-0,43; 3,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 5,18</t>
+          <t>-34,65; 0,48</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,94%</t>
+          <t>-0,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>-21,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>-11,64%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 0,66</t>
+          <t>-5,02; 3,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 5,92</t>
+          <t>-56,82; 1,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 5,15</t>
+          <t>1,39; 7,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 8,48</t>
+          <t>-2,96; 3,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 1,6</t>
+          <t>-0,5; 4,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 6,06</t>
+          <t>-40,23; 0,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>0,83</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 2,62</t>
+          <t>-5,47; 2,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 0,44</t>
+          <t>-6,53; 3,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 6,46</t>
+          <t>-1,84; 4,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,22</t>
+          <t>-1,31; 7,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,86</t>
+          <t>-2,58; 2,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -0,05</t>
+          <t>-2,21; 5,88</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,72%</t>
+          <t>-1,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,46%</t>
+          <t>-1,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,58%</t>
+          <t>0,94%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 3,23</t>
+          <t>-6,37; 2,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 0,63</t>
+          <t>-7,64; 4,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 7,42</t>
+          <t>-2,0; 4,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 2,56</t>
+          <t>-1,43; 7,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,57</t>
+          <t>-2,91; 2,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,93; -0,06</t>
+          <t>-2,5; 6,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-9,47</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-7,56</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 2,3</t>
+          <t>-5,9; 1,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 3,19</t>
+          <t>-9,22; -1,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,24</t>
+          <t>-7,27; -1,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 4,63</t>
+          <t>-28,33; -2,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,06</t>
+          <t>-5,53; -1,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,25</t>
+          <t>-16,54; -3,7</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>-2,89%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,86%</t>
+          <t>-6,39%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>-4,88%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>-10,4%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>-3,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>-8,54%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 2,76</t>
+          <t>-6,7; 1,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 3,86</t>
+          <t>-10,71; -1,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 4,8</t>
+          <t>-7,92; -2,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 5,24</t>
+          <t>-31,4; -3,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,38</t>
+          <t>-6,26; -1,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,71</t>
+          <t>-18,51; -4,2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>-7,66</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,45</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-5,97</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-4,44</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 1,0</t>
+          <t>-3,52; -0,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,26; -1,49</t>
+          <t>-25,55; -1,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,27; -1,81</t>
+          <t>-1,29; 1,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,17; -2,66</t>
+          <t>-7,41; 1,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,53; -1,25</t>
+          <t>-1,9; 0,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,53; -3,14</t>
+          <t>-14,56; -0,77</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-6,5%</t>
+          <t>-8,97%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-4,88%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-6,56%</t>
+          <t>-1,6%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-3,97%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>-5,07%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 1,26</t>
+          <t>-4,07; -0,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,66; -1,72</t>
+          <t>-29,95; -1,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-7,92; -2,03</t>
+          <t>-1,42; 1,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,19; -3,02</t>
+          <t>-8,21; 1,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -1,42</t>
+          <t>-2,15; 0,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,61; -3,58</t>
+          <t>-16,67; -0,88</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,73</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-3,3</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-2,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; -0,01</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-7,48; -1,06</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 1,63</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 0,64</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,9; 0,34</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; -0,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-2,03%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-3,87%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-1,32%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-0,86%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-2,4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-4,07; -0,02</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-8,75; -1,26</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 1,82</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-3,28; 0,72</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-2,15; 0,39</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-4,81; -0,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P38A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 1,4</t>
+          <t>-5,88; 1,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 5,92</t>
+          <t>-2,56; 5,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 4,25</t>
+          <t>-2,77; 3,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,2</t>
+          <t>1,09; 7,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,94</t>
+          <t>-3,34; 1,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,8</t>
+          <t>0,16; 5,41</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 1,63</t>
+          <t>-6,65; 1,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 6,87</t>
+          <t>-2,85; 6,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 4,87</t>
+          <t>-3,04; 4,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 8,28</t>
+          <t>1,23; 8,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 2,24</t>
+          <t>-3,75; 1,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,67</t>
+          <t>0,17; 6,18</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 2,62</t>
+          <t>-3,76; 3,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-47,54; 0,89</t>
+          <t>-45,56; 0,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 6,46</t>
+          <t>1,36; 6,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 3,04</t>
+          <t>-2,92; 3,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,86</t>
+          <t>-0,57; 4,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,65; 0,48</t>
+          <t>-35,44; 0,65</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 3,23</t>
+          <t>-4,46; 3,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,82; 1,05</t>
+          <t>-55,54; 0,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 7,42</t>
+          <t>1,53; 7,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 3,51</t>
+          <t>-3,24; 3,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,57</t>
+          <t>-0,67; 4,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,23; 0,56</t>
+          <t>-40,84; 0,72</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 2,3</t>
+          <t>-5,78; 2,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 3,42</t>
+          <t>-6,91; 2,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,24</t>
+          <t>-1,84; 4,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 7,04</t>
+          <t>-1,53; 6,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,06</t>
+          <t>-2,86; 2,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 5,88</t>
+          <t>-2,39; 5,06</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 2,76</t>
+          <t>-6,65; 2,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 4,07</t>
+          <t>-7,89; 3,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 4,8</t>
+          <t>-2,0; 4,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 7,95</t>
+          <t>-1,73; 7,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,38</t>
+          <t>-3,21; 2,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 6,77</t>
+          <t>-2,72; 5,79</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 1,0</t>
+          <t>-5,87; 0,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,22; -1,37</t>
+          <t>-9,39; -1,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,27; -1,81</t>
+          <t>-7,29; -1,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-28,33; -2,76</t>
+          <t>-25,7; -3,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,53; -1,25</t>
+          <t>-5,66; -1,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,54; -3,7</t>
+          <t>-19,04; -3,87</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 1,26</t>
+          <t>-6,72; 0,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,71; -1,6</t>
+          <t>-10,77; -1,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,92; -2,03</t>
+          <t>-7,95; -1,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,4; -3,09</t>
+          <t>-28,58; -3,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -1,42</t>
+          <t>-6,39; -1,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,51; -4,2</t>
+          <t>-21,71; -4,43</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -0,01</t>
+          <t>-3,49; 0,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-25,55; -1,28</t>
+          <t>-24,37; -0,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,63</t>
+          <t>-1,34; 1,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 1,09</t>
+          <t>-8,07; 1,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,34</t>
+          <t>-1,91; 0,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,56; -0,77</t>
+          <t>-14,0; -0,63</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,07; -0,02</t>
+          <t>-4,06; 0,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,95; -1,49</t>
+          <t>-28,58; -1,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,82</t>
+          <t>-1,48; 1,81</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 1,22</t>
+          <t>-8,98; 1,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 0,39</t>
+          <t>-2,16; 0,43</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-16,67; -0,88</t>
+          <t>-15,94; -0,73</t>
         </is>
       </c>
     </row>
